--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2349783.267906347</v>
+        <v>2469680.368080632</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5658239.098701634</v>
+        <v>6050328.66449821</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +667,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>65.04649299073976</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>63.42480053378797</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -817,19 +819,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.28391178232732</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>165.2651829724489</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>333.4191839581966</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -902,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>22.51978202893092</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1054,16 +1056,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>15.3899804021985</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1108,10 +1110,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>46.16191430098121</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1148,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>230.7788055297378</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>110.8471439350443</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.6396103681152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>254.3806334650096</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,13 +1426,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026575</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1543,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>160.8277938782463</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1607,25 +1609,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>166.4095674067252</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458143</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1774,13 +1776,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>60.64582998875628</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486161</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1904,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026559</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>51.69511841098215</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>80.96206012172777</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>69.70658994605395</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>25.13775189891279</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>165.5938898061686</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2485,13 +2487,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>115.5097703527792</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3010,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3193,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>72.51017950359382</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3269,7 +3271,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>146.7855775533133</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>247.7161059405516</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095521</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>1.44894733164843</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3718,16 +3720,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.6574053318557</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>356.6550439685141</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>51.58543740429417</v>
+        <v>123.9614865446926</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>229.9012415805993</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>78.60513115872803</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>59.93143566197608</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972.9074190595574</v>
+        <v>168.7534004685691</v>
       </c>
       <c r="C2" t="n">
-        <v>950.0470931132616</v>
+        <v>145.8930745222733</v>
       </c>
       <c r="D2" t="n">
-        <v>930.7948763386659</v>
+        <v>126.6408577476776</v>
       </c>
       <c r="E2" t="n">
-        <v>504.8179364865234</v>
+        <v>104.7043219359392</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="N2" t="n">
-        <v>1651.269438076291</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1862.189048931929</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>1798.123593847295</v>
+        <v>993.9695752563066</v>
       </c>
       <c r="W2" t="n">
-        <v>1401.732244147642</v>
+        <v>597.5782255566535</v>
       </c>
       <c r="X2" t="n">
-        <v>990.012245315389</v>
+        <v>185.8582267244007</v>
       </c>
       <c r="Y2" t="n">
-        <v>988.7153793106834</v>
+        <v>184.5613607196951</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
-        <v>490.8953374243588</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>1041.560872408797</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>1592.226407393235</v>
+        <v>796.7851917762484</v>
       </c>
       <c r="M3" t="n">
-        <v>1592.226407393235</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="N3" t="n">
-        <v>1592.226407393235</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>2142.891942377673</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="P3" t="n">
-        <v>2142.891942377673</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>617.588040521193</v>
+        <v>955.6750519694078</v>
       </c>
       <c r="C4" t="n">
-        <v>617.588040521193</v>
+        <v>783.7024888483238</v>
       </c>
       <c r="D4" t="n">
-        <v>454.2712676479637</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="E4" t="n">
-        <v>288.0630618008172</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>288.0630618008172</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>38.71266663273758</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>393.4019879271584</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>784.5877828974092</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707716</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="W4" t="n">
-        <v>974.6885374882575</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="X4" t="n">
-        <v>807.7540092332586</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="Y4" t="n">
-        <v>807.7540092332586</v>
+        <v>1145.841020681474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>995.654673634235</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>972.7943476879392</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>549.5017268729395</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>123.524787020797</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>102.4410092506013</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>102.142350880454</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
         <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
         <v>2107.354917580474</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.519902762723</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>1416.799903930471</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1415.503037925765</v>
+        <v>1274.797602306257</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4649,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.958672221996</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="C7" t="n">
-        <v>526.4132374723006</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D7" t="n">
-        <v>526.4132374723006</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.43685720741</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1531.252408707715</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V7" t="n">
-        <v>1249.540941315744</v>
+        <v>1717.770047630966</v>
       </c>
       <c r="W7" t="n">
-        <v>974.6885374882565</v>
+        <v>1442.917643803479</v>
       </c>
       <c r="X7" t="n">
-        <v>732.1246409340616</v>
+        <v>1200.353747249284</v>
       </c>
       <c r="Y7" t="n">
-        <v>732.1246409340616</v>
+        <v>974.0109789390265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.160856418925</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>1148.260126432225</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>724.9675056172257</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>298.9905657650833</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>277.9067879948876</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>277.6081296247402</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.98568150701</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>1996.306086715161</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1590.968816670051</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>374.0719676282447</v>
+        <v>738.2594066832694</v>
       </c>
       <c r="C10" t="n">
-        <v>374.0719676282447</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7551947550154</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7551947550154</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7551947550154</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4990,22 +4992,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>928.425375395335</v>
       </c>
       <c r="Y10" t="n">
-        <v>564.2379363403104</v>
+        <v>928.425375395335</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1079.521716903027</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1079.521716903027</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.521716903027</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1079.521716903027</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>654.3975350924272</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792862</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>99.579021753321</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679218</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>64.68215049679218</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>865.1237628945953</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1177.138820539819</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>1977.580432937622</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>2778.022045335425</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>2778.022045335425</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839609</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839609</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757382</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353794</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.970335480044</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>1896.57898578039</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>1484.858986948137</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1079.521716903027</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763833</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763833</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>336.3796397763833</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>336.3796397763833</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N12" t="n">
-        <v>1136.821252174186</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2136.875619950717</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C13" t="n">
-        <v>1964.903056829633</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D13" t="n">
-        <v>1801.586283956404</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E13" t="n">
-        <v>1635.378078109258</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F13" t="n">
-        <v>1463.516303883818</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>1297.25933417805</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>1153.463065686205</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>1053.69449742648</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>1111.185825650638</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>1337.713426856476</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>1692.402748150897</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>2083.588543121147</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>2461.080053997183</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2816.508182676946</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>3107.107394598847</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>3234.107524839609</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>3234.107524839609</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>3234.107524839609</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>3234.107524839609</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>3234.107524839609</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>3070.800657354723</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>2795.948253527236</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>2553.384356973041</v>
+        <v>1104.713562875248</v>
       </c>
       <c r="Y13" t="n">
-        <v>2327.041588662783</v>
+        <v>878.3707945649905</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>659.6733526114974</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>232.7726226247975</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>232.7726226247975</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>232.7726226247975</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>232.7726226247975</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679218</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679218</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679218</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679218</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>715.2263527642966</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>1515.6679651621</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N14" t="n">
-        <v>2316.109577559903</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957706</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957706</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957706</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839609</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757381</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353793</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.970335480043</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>1896.57898578039</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>1484.858986948137</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1079.521716903027</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763833</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>336.3796397763833</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>336.3796397763833</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>1136.821252174186</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>1873.369781077302</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2136.875619950717</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="C16" t="n">
-        <v>1964.903056829633</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D16" t="n">
-        <v>1801.586283956404</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E16" t="n">
-        <v>1635.378078109258</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F16" t="n">
-        <v>1463.516303883818</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>1297.25933417805</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>1153.463065686205</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>1053.69449742648</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>1111.185825650638</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>1337.713426856476</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>1692.402748150897</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>2083.588543121147</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>2461.080053997183</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2816.508182676946</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>3107.107394598847</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>3234.107524839609</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>3234.107524839609</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>3234.107524839609</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>3234.107524839609</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>3234.107524839609</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>3070.800657354723</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>2795.948253527236</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X16" t="n">
-        <v>2553.384356973041</v>
+        <v>924.1959984019542</v>
       </c>
       <c r="Y16" t="n">
-        <v>2327.041588662783</v>
+        <v>697.8532300916962</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5552,10 +5554,10 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.60713123221</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354847</v>
@@ -5598,22 +5600,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>223.2920388516654</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>223.2920388516654</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>223.2920388516654</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3348.967677140029</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>3348.967677140029</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D19" t="n">
-        <v>3348.967677140029</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E19" t="n">
-        <v>3182.759471292883</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>3182.759471292883</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>3016.502501587115</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>4092.726745831969</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>3817.874342004482</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>3575.310445450287</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>3348.967677140029</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,7 +5755,7 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
         <v>1463.618246195026</v>
@@ -5789,13 +5791,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1067.07923602298</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>895.1066729018962</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>731.7899000286669</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>565.5816941815204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>393.7199199560808</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>227.462950250313</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2001.004273426986</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1726.151869599499</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1483.587973045304</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1257.245204735046</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>366.6855125151251</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1082.193820490624</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.818868109901</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6066,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1015214887346</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N24" t="n">
-        <v>939.1015214887346</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.582799500206</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>775.6620294727279</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C25" t="n">
-        <v>603.6894663516439</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D25" t="n">
-        <v>440.3726934784146</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2271.4829827684</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1991.298534268705</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.587066876733</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.734663049246</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.170766495052</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>965.8279981847936</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3158.801708427964</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C28" t="n">
-        <v>2986.82914530688</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D28" t="n">
-        <v>2934.722642878299</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450287</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>3348.967677140029</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.927761025105</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2036.213862444163</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6552,16 +6554,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>648.2727960958064</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>648.2727960958064</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>484.9560232225771</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>318.7478173754306</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>318.7478173754306</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1064.78153311813</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>838.4387648078721</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O32" t="n">
-        <v>4090.576687723259</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6789,16 +6791,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1191.617659878699</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1019.226866224298</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C34" t="n">
-        <v>847.2543031032136</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D34" t="n">
-        <v>683.9375302299843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>517.7293243828378</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1992.299474466079</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1992.299474466079</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1710.588007074108</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1435.735603246621</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1435.735603246621</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>1209.392834936363</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.2177258288816</v>
+        <v>368.279487512699</v>
       </c>
       <c r="C37" t="n">
-        <v>584.2177258288816</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D37" t="n">
-        <v>584.2177258288816</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7105,40 +7107,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V37" t="n">
-        <v>1291.799994922629</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W37" t="n">
-        <v>1016.947591095142</v>
+        <v>985.4544125320137</v>
       </c>
       <c r="X37" t="n">
-        <v>774.3836945409473</v>
+        <v>742.8905159778188</v>
       </c>
       <c r="Y37" t="n">
-        <v>774.3836945409473</v>
+        <v>516.5477476675609</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7187,22 +7189,22 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7263,13 +7265,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1013.511272808981</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>441.8850405003172</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>270.0232662748776</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>103.7662965691098</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1712.153331232334</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1430.441863840363</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W40" t="n">
-        <v>1155.589460012876</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X40" t="n">
-        <v>1155.589460012876</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y40" t="n">
-        <v>1013.511272808981</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1997.201891670715</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1997.201891670715</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1573.909270855716</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1147.932331003573</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>722.8081491929736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.632070870094</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>2381.073683267897</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>2381.073683267897</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3181.5152956657</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839608</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839608</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3234.107524839608</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3234.107524839608</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2822.387526007355</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2417.050255962246</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679216</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679216</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679216</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L42" t="n">
-        <v>865.1237628945951</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M42" t="n">
-        <v>865.1237628945951</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.565375292398</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>288.7612160464561</v>
+        <v>3666.855944130192</v>
       </c>
       <c r="C43" t="n">
-        <v>116.7886529253721</v>
+        <v>3494.883381009108</v>
       </c>
       <c r="D43" t="n">
-        <v>116.7886529253721</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="E43" t="n">
-        <v>116.7886529253721</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="F43" t="n">
-        <v>116.7886529253721</v>
+        <v>3159.704833910439</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68215049679216</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679216</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679216</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267874</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U43" t="n">
-        <v>1504.397720842433</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.686253450462</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W43" t="n">
-        <v>947.8338496229746</v>
+        <v>4099.585809396453</v>
       </c>
       <c r="X43" t="n">
-        <v>705.2699530687797</v>
+        <v>3857.021912842258</v>
       </c>
       <c r="Y43" t="n">
-        <v>478.9271847585218</v>
+        <v>3857.021912842258</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2170.315685371786</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1743.414955385085</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.122334570086</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1453947179433</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679216</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>427.2856093136877</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1227.727221711491</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M44" t="n">
-        <v>2028.168834109294</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N44" t="n">
-        <v>2028.168834109294</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>2069.742766177497</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335425</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839608</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3001.884048495568</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3001.884048495568</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3001.884048495568</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2590.164049663315</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2590.164049663315</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L45" t="n">
-        <v>272.4865562816959</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M45" t="n">
-        <v>272.4865562816959</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="N45" t="n">
-        <v>1072.928168679499</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>4195.92931772239</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>4650.990193428648</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.1391771333831</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="C46" t="n">
-        <v>407.1666140122991</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="D46" t="n">
-        <v>243.8498411390698</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="E46" t="n">
-        <v>243.8498411390698</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="F46" t="n">
-        <v>164.4507187565162</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4507187565162</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679216</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267874</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.960130429055</v>
+        <v>4837.42520579877</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.77568192936</v>
+        <v>4557.240757299074</v>
       </c>
       <c r="V46" t="n">
-        <v>1513.064214537389</v>
+        <v>4275.529289907103</v>
       </c>
       <c r="W46" t="n">
-        <v>1238.211810709902</v>
+        <v>4000.676886079616</v>
       </c>
       <c r="X46" t="n">
-        <v>995.6479141557066</v>
+        <v>3758.112989525421</v>
       </c>
       <c r="Y46" t="n">
-        <v>769.3051458454487</v>
+        <v>3531.770221215163</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>39.7358160668222</v>
       </c>
       <c r="N2" t="n">
-        <v>547.8252218830993</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8055,28 +8057,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>88.51522805109136</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>33.56260952839192</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517321</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030811</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8295,13 +8297,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>173.1511355154377</v>
+        <v>177.6973456537768</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
@@ -8313,10 +8315,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>452.4414523720698</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8468,13 +8470,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>455.6345869468032</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425251</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>352.5979877935975</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443482</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659263</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,25 +8768,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234438</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>767.1603027556722</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>185.6255543726317</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>695.427398258385</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093339</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443482</v>
+        <v>967.5075822902267</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659263</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9005,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222302</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>765.3314412469916</v>
+        <v>279.6168721116282</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9246,25 +9248,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>144.7265265585092</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9477,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>475.2939470053066</v>
+        <v>1043.774157741933</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>296.4732919192194</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9656,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9714,16 +9716,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>208.3123223574469</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9732,10 +9734,10 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9972,7 +9974,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10133,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>129.1350140843319</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>949.8342934347922</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10361,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10437,19 +10439,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10595,16 +10597,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>100.0581876036184</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10662,31 +10664,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>299.9167405677024</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,13 +10837,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>859.128966425699</v>
       </c>
       <c r="P38" t="n">
-        <v>466.3243076206841</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10911,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>749.810964578424</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425248</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093337</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>90.69882562225911</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L42" t="n">
-        <v>831.0419679241315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234436</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>233.0753299089938</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425248</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093337</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>79.38483013198697</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>232.4185269010011</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234436</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>831.6987709321241</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131703</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>145.9150383214363</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>79.31046371040659</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>233.8861043797206</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>179.4924275998966</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23896,16 +23898,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.8510053776928</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>61.39624568519937</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>117.2205539080144</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.658947683704582</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>49.08462965593095</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>168.3957747927652</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>41.47873147163173</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -25318,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>31.17824677749974</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.9093584752787</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>83.42193529529965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>43.64062781793177</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>113.008962604416</v>
+        <v>40.63291346401758</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>25.87011872895255</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>91.53802532445715</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>180.9745186343829</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>532821.064446768</v>
+        <v>532078.0525770185</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>385696.9387567583</v>
+        <v>520143.4762216866</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>385696.9387567583</v>
+        <v>520143.4762216866</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520143.4762216866</v>
+        <v>520143.4762216865</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>520143.4762216865</v>
+        <v>520143.4762216867</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>385696.9387567584</v>
+        <v>520143.4762216866</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>385696.9387567584</v>
+        <v>520143.4762216866</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495076.2678094888</v>
+        <v>495076.2678094887</v>
       </c>
       <c r="C2" t="n">
-        <v>495076.2678094888</v>
+        <v>495076.2678094887</v>
       </c>
       <c r="D2" t="n">
-        <v>495076.2678094887</v>
+        <v>495076.2678094889</v>
       </c>
       <c r="E2" t="n">
-        <v>354248.135202334</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="F2" t="n">
-        <v>354248.1352023341</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="G2" t="n">
-        <v>477725.8426668302</v>
+        <v>477725.8426668306</v>
       </c>
       <c r="H2" t="n">
         <v>477725.8426668306</v>
       </c>
       <c r="I2" t="n">
-        <v>477725.8426668304</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="J2" t="n">
-        <v>477725.8426668302</v>
+        <v>477725.8426668301</v>
       </c>
       <c r="K2" t="n">
-        <v>477725.8426668301</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="L2" t="n">
         <v>477725.8426668303</v>
       </c>
       <c r="M2" t="n">
+        <v>477725.8426668303</v>
+      </c>
+      <c r="N2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="O2" t="n">
+        <v>477725.8426668303</v>
+      </c>
+      <c r="P2" t="n">
         <v>477725.8426668304</v>
-      </c>
-      <c r="N2" t="n">
-        <v>477725.8426668306</v>
-      </c>
-      <c r="O2" t="n">
-        <v>354248.1352023342</v>
-      </c>
-      <c r="P2" t="n">
-        <v>354248.135202334</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346229</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115404</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537387</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148130.4125690142</v>
+        <v>163968.7154446949</v>
       </c>
       <c r="C4" t="n">
         <v>148130.4125690142</v>
@@ -26424,25 +26426,25 @@
         <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>11188.41208760844</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="F4" t="n">
-        <v>11188.41208760844</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792737</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792738</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
         <v>15116.17365792744</v>
@@ -26451,13 +26453,13 @@
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>11188.4120876085</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="P4" t="n">
-        <v>11188.4120876085</v>
+        <v>15116.17365792744</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756205</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756205</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93094.87078830926</v>
+        <v>105941.6334730414</v>
       </c>
       <c r="C6" t="n">
-        <v>279499.6042030465</v>
+        <v>256092.7705294341</v>
       </c>
       <c r="D6" t="n">
-        <v>279499.6042030464</v>
+        <v>279499.6042030466</v>
       </c>
       <c r="E6" t="n">
-        <v>218570.3375837013</v>
+        <v>169120.2502638328</v>
       </c>
       <c r="F6" t="n">
-        <v>293901.2887371636</v>
+        <v>384859.6068204733</v>
       </c>
       <c r="G6" t="n">
-        <v>255969.2070089327</v>
+        <v>384859.6068204734</v>
       </c>
       <c r="H6" t="n">
-        <v>384859.6068204735</v>
+        <v>384859.6068204734</v>
       </c>
       <c r="I6" t="n">
-        <v>384859.6068204733</v>
+        <v>384859.6068204731</v>
       </c>
       <c r="J6" t="n">
-        <v>239325.9368856566</v>
+        <v>258282.3382401842</v>
       </c>
       <c r="K6" t="n">
-        <v>384859.6068204729</v>
+        <v>366213.0064634533</v>
       </c>
       <c r="L6" t="n">
         <v>384859.6068204732</v>
       </c>
       <c r="M6" t="n">
-        <v>321985.6698550994</v>
+        <v>204795.7353653055</v>
       </c>
       <c r="N6" t="n">
-        <v>384859.6068204734</v>
+        <v>384859.606820473</v>
       </c>
       <c r="O6" t="n">
-        <v>293901.2887371637</v>
+        <v>384859.6068204732</v>
       </c>
       <c r="P6" t="n">
-        <v>293901.2887371635</v>
+        <v>384859.6068204733</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099022</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099022</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099019</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099019</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943081</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629546</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943077</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943081</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629546</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,10 +27387,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>355.826447001754</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>290.489720191225</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>2.284315397371259</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>74.87307461620404</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>82.23069669041814</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>272.3699127117746</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>154.8628570876746</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>232.7324384170702</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>64.11088921096777</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27904,10 +27906,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>206.2762395340006</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27916,7 +27918,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>59.29601254814088</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.4397302590402</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,19 +28140,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-9.433067354056507e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28327,16 +28329,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28345,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.105833177263421e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28390,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28561,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.43088606097896e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>2.304553167390384</v>
       </c>
       <c r="N2" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>67.90411371775802</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.81557123941343</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771759611215</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>48.74406945557187</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>150.7519016821044</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
@@ -35033,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,13 +35190,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>432.5378064344752</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099022</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>315.1667248941657</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099022</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099022</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099022</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>743.98841303345</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>657.1153558257621</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099022</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099022</v>
+        <v>930.2279594557806</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099022</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099022</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>743.98841303345</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>122.2114398442797</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.1971664929786</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>267.0533324336329</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36376,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>185.2155418451189</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36853,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>94.10236418953542</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>928.4912652212506</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37081,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37157,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37315,16 +37317,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>62.48282579338712</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37475,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404432</v>
       </c>
       <c r="O37" t="n">
         <v>359.0183117977405</v>
@@ -37555,13 +37557,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696748</v>
       </c>
       <c r="P38" t="n">
-        <v>428.7489458104528</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37631,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>726.6390748562018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099019</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>53.12346381202781</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L42" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>209.9034401867715</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099019</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>41.99387077596288</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9034401867715</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099019</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>459.6574502083416</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2469680.368080632</v>
+        <v>2468983.706875541</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114755</v>
+        <v>612367.9462114749</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>65.04649299073976</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>169.6107040115282</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.28391178232732</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>198.0619280264376</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.4191839581966</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>61.03269750657452</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1065,7 +1065,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>46.16191430098121</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>21.09292449517302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>49.49512077555119</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>110.8471439350443</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>47.37384610069657</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>51.69511841098215</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>160.8277938782463</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429822</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>60.64582998875628</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>146.4465376950587</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>51.69511841098215</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.70658994605395</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>165.5938898061686</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.30362264056416</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.7855775533133</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3477,7 +3477,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3486,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>51.17253831661246</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.44894733164843</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>121.7582967392559</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9614865446926</v>
+        <v>11.17736360794279</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3948,7 +3948,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>59.93143566197608</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685691</v>
+        <v>1336.254862086502</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222733</v>
+        <v>909.3541320998025</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476776</v>
+        <v>486.0615112848028</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359392</v>
+        <v>60.0845714326604</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246474</v>
+        <v>39.00079366246469</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516411</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516411</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873576</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873576</v>
+        <v>882.5260259873562</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229786</v>
+        <v>882.5260259873562</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229786</v>
+        <v>1361.464950229784</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1817.550429733967</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130057</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563066</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566535</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="X2" t="n">
-        <v>185.8582267244007</v>
+        <v>1927.427169824021</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196951</v>
+        <v>1756.103226378033</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000781</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422927</v>
+        <v>46.14877825422923</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>46.14877825422923</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>46.14877825422923</v>
       </c>
       <c r="L3" t="n">
-        <v>796.7851917762484</v>
+        <v>46.14877825422923</v>
       </c>
       <c r="M3" t="n">
-        <v>1275.724116018677</v>
+        <v>525.0877024966569</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018677</v>
+        <v>1004.026626739085</v>
       </c>
       <c r="O3" t="n">
-        <v>1754.663040261105</v>
+        <v>1482.965550981512</v>
       </c>
       <c r="P3" t="n">
-        <v>1754.663040261105</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.6750519694078</v>
+        <v>858.797916683601</v>
       </c>
       <c r="C4" t="n">
-        <v>783.7024888483238</v>
+        <v>686.825353562517</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3857159750945</v>
+        <v>686.825353562517</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>182.498403784163</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273758</v>
+        <v>165.7127968734981</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271584</v>
+        <v>520.4021181679188</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974092</v>
+        <v>911.5879131381696</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1289.079424014205</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1644.507552693969</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1890.375540593318</v>
+        <v>1888.068151303043</v>
       </c>
       <c r="S4" t="n">
-        <v>1890.375540593318</v>
+        <v>1717.933103822178</v>
       </c>
       <c r="T4" t="n">
-        <v>1647.036192819219</v>
+        <v>1517.870550260119</v>
       </c>
       <c r="U4" t="n">
-        <v>1647.036192819219</v>
+        <v>1517.870550260119</v>
       </c>
       <c r="V4" t="n">
-        <v>1647.036192819219</v>
+        <v>1517.870550260119</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.183788991731</v>
+        <v>1517.870550260119</v>
       </c>
       <c r="X4" t="n">
-        <v>1372.183788991731</v>
+        <v>1275.306653705925</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.841020681474</v>
+        <v>1048.963885395667</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>1780.988227140365</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2163.262063061796</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2163.262063061796</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102812</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.094468310963</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>1274.797602306257</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>205.6899987133984</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.8450102269608</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>783.8450102269608</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
         <v>454.3200315065851</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1717.770047630966</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1442.917643803479</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1200.353747249284</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.0109789390265</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>555.2761281011831</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>128.3753981144832</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>109.1231813398875</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>87.18664552814914</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>66.10286775795345</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>65.80420938780614</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>65.80420938780614</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.916180971921</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>2174.916180971921</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.916180971921</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>976.4213583974188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>975.1244923927131</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1696.494830002562</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>738.2594066832694</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C10" t="n">
-        <v>566.2868435621854</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D10" t="n">
-        <v>566.2868435621854</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E10" t="n">
-        <v>566.2868435621854</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>2177.058882663693</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W10" t="n">
-        <v>1170.98927194953</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X10" t="n">
-        <v>928.425375395335</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y10" t="n">
-        <v>928.425375395335</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5053,16 +5053,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5129,13 +5129,13 @@
         <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>1748.774177950213</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.774177950213</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O12" t="n">
-        <v>1748.774177950213</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="P12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.3707945649905</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C13" t="n">
-        <v>706.3982314439065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D13" t="n">
-        <v>706.3982314439065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E13" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5235,16 +5235,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1104.713562875248</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3707945649905</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
         <v>2113.800768076616</v>
@@ -5284,22 +5284,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5320,10 +5320,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>184.7102578919605</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1015214887346</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.8532300916962</v>
+        <v>326.3817789554966</v>
       </c>
       <c r="C16" t="n">
-        <v>697.8532300916962</v>
+        <v>154.4092158344126</v>
       </c>
       <c r="D16" t="n">
-        <v>534.5364572184669</v>
+        <v>154.4092158344126</v>
       </c>
       <c r="E16" t="n">
-        <v>368.3282513713204</v>
+        <v>154.4092158344126</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>154.4092158344126</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>154.4092158344126</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>154.4092158344126</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5448,40 +5448,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359498</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W16" t="n">
-        <v>985.454412532011</v>
+        <v>985.4544125320151</v>
       </c>
       <c r="X16" t="n">
-        <v>924.1959984019542</v>
+        <v>742.8905159778202</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.8532300916962</v>
+        <v>516.5477476675622</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5603,19 +5603,19 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>851.4325941215639</v>
       </c>
       <c r="C19" t="n">
-        <v>326.3817789554925</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="D19" t="n">
-        <v>326.3817789554925</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5703,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1510.505227698082</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1267.941331143888</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>1041.59856283363</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N21" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5992,22 +5992,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>557.3635891120873</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>557.3635891120873</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>742.8905159778161</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>575.6239606180499</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>412.3071877448206</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6311,22 +6311,22 @@
         <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1808.730580298577</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.483482374059</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>366.6855125151251</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1082.193820490624</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P33" t="n">
         <v>1364.825557038856</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
         <v>1364.825557038856</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.279487512699</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C37" t="n">
-        <v>368.279487512699</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D37" t="n">
-        <v>368.279487512699</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7101,10 +7101,10 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302474</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N37" t="n">
         <v>1509.688269976534</v>
@@ -7125,22 +7125,22 @@
         <v>2065.542080025268</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251168</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751472</v>
+        <v>1785.357631525572</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359501</v>
+        <v>1503.646164133601</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4544125320137</v>
+        <v>1451.956731490558</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778188</v>
+        <v>1209.392834936363</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675609</v>
+        <v>1209.392834936363</v>
       </c>
     </row>
     <row r="38">
@@ -7174,22 +7174,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>991.7839914173002</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1707.981708455798</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>608.0932463474637</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="C40" t="n">
-        <v>608.0932463474637</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="D40" t="n">
-        <v>608.0932463474637</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E40" t="n">
-        <v>441.8850405003172</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F40" t="n">
-        <v>270.0232662748776</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G40" t="n">
-        <v>103.7662965691098</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1989.592514813591</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1709.408066313895</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1427.696598921924</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.165879923982</v>
+        <v>1152.844195094437</v>
       </c>
       <c r="X40" t="n">
-        <v>1024.601983369787</v>
+        <v>910.2802985402423</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.2592150595294</v>
+        <v>683.9375302299843</v>
       </c>
     </row>
     <row r="41">
@@ -7411,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
         <v>1364.825557038856</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3666.855944130192</v>
+        <v>686.6827951484232</v>
       </c>
       <c r="C43" t="n">
-        <v>3494.883381009108</v>
+        <v>686.6827951484232</v>
       </c>
       <c r="D43" t="n">
-        <v>3331.566608135879</v>
+        <v>523.3660222751939</v>
       </c>
       <c r="E43" t="n">
-        <v>3331.566608135879</v>
+        <v>357.1578164280475</v>
       </c>
       <c r="F43" t="n">
-        <v>3159.704833910439</v>
+        <v>357.1578164280475</v>
       </c>
       <c r="G43" t="n">
-        <v>3034.491211138023</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T43" t="n">
-        <v>4654.622661723635</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U43" t="n">
-        <v>4374.43821322394</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V43" t="n">
-        <v>4374.43821322394</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W43" t="n">
-        <v>4099.585809396453</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X43" t="n">
-        <v>3857.021912842258</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y43" t="n">
-        <v>3857.021912842258</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G44" t="n">
         <v>435.0679631883225</v>
@@ -7648,49 +7648,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>3306.448039710919</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M45" t="n">
-        <v>3306.448039710919</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N45" t="n">
-        <v>3306.448039710919</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O45" t="n">
-        <v>4195.92931772239</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>4650.990193428648</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3341.604252503098</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>3341.604252503098</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>4837.42520579877</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>4557.240757299074</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>4275.529289907103</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>4000.676886079616</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>3758.112989525421</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>3531.770221215163</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>519.5412919487767</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>39.7358160668222</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>39.58417600183549</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641987</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8057,31 +8057,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681974</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662958</v>
+        <v>506.8734716662954</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.119719367509</v>
       </c>
       <c r="O3" t="n">
-        <v>506.94858087619</v>
+        <v>506.9485808761896</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>389.8761087718134</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.56260952839192</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030811</v>
+        <v>149.2582520094601</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8233,13 +8233,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>177.6973456537768</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8315,10 +8315,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8470,7 +8470,7 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>300.5986134498011</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8531,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>461.4026962257055</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.17301358442491</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,16 +8777,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>185.6255543726317</v>
+        <v>353.8126856499787</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8932,13 +8932,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>967.5075822902267</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>105.6391777587192</v>
       </c>
       <c r="L15" t="n">
         <v>867.7664080100944</v>
@@ -9017,13 +9017,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>279.6168721116282</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>765.1769988726438</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9251,10 +9251,10 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>453.1210588457837</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9421,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M21" t="n">
-        <v>1043.774157741933</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9497,10 +9497,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9640,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9649,7 +9649,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>736.7071336234585</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>208.3123223574469</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9971,13 +9971,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.0397288826768</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>296.4732919192194</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,16 +10202,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>35.76460079480934</v>
@@ -10360,7 +10360,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N35" t="n">
-        <v>632.4842746885297</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10606,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>299.9167405677024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,16 +10831,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
-        <v>859.128966425699</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.806266097605</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>877.2336749314295</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11141,7 +11141,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>292.2790261091175</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11156,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11302,19 +11302,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11378,10 +11378,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>701.3412655674495</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>481.4282914131703</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>112.8510053776928</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>79.31046371040659</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>47.18544517282857</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>179.4924275998966</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>23.80629979481441</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>112.8510053776928</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.557719078891</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.658947683704582</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.47873147163173</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>220.9313414725996</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9093584752787</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>119.1476575571031</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>40.63291346401758</v>
+        <v>153.4170364007674</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>180.9745186343829</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520143.4762216865</v>
+        <v>520143.4762216866</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>520143.4762216867</v>
+        <v>520143.4762216866</v>
       </c>
     </row>
     <row r="14">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>495076.2678094885</v>
+      </c>
+      <c r="C2" t="n">
+        <v>495076.2678094886</v>
+      </c>
+      <c r="D2" t="n">
         <v>495076.2678094887</v>
       </c>
-      <c r="C2" t="n">
-        <v>495076.2678094887</v>
-      </c>
-      <c r="D2" t="n">
-        <v>495076.2678094889</v>
-      </c>
       <c r="E2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="F2" t="n">
-        <v>477725.8426668304</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="G2" t="n">
         <v>477725.8426668306</v>
       </c>
       <c r="H2" t="n">
-        <v>477725.8426668306</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="I2" t="n">
         <v>477725.8426668302</v>
       </c>
       <c r="J2" t="n">
-        <v>477725.8426668301</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="K2" t="n">
         <v>477725.8426668303</v>
@@ -26346,16 +26346,16 @@
         <v>477725.8426668303</v>
       </c>
       <c r="M2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="N2" t="n">
         <v>477725.8426668303</v>
-      </c>
-      <c r="N2" t="n">
-        <v>477725.8426668302</v>
       </c>
       <c r="O2" t="n">
         <v>477725.8426668303</v>
       </c>
       <c r="P2" t="n">
-        <v>477725.8426668304</v>
+        <v>477725.8426668303</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361243</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701996</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163968.7154446949</v>
+        <v>163968.715444695</v>
       </c>
       <c r="C4" t="n">
-        <v>148130.4125690142</v>
+        <v>148130.4125690141</v>
       </c>
       <c r="D4" t="n">
         <v>148130.4125690142</v>
@@ -26429,37 +26429,37 @@
         <v>15116.17365792744</v>
       </c>
       <c r="F4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="G4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="P4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216122</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26508,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105941.6334730414</v>
+        <v>105941.6334730413</v>
       </c>
       <c r="C6" t="n">
-        <v>256092.7705294341</v>
+        <v>256092.7705294339</v>
       </c>
       <c r="D6" t="n">
-        <v>279499.6042030466</v>
+        <v>279499.6042030464</v>
       </c>
       <c r="E6" t="n">
-        <v>169120.2502638328</v>
+        <v>169069.2196016484</v>
       </c>
       <c r="F6" t="n">
-        <v>384859.6068204733</v>
+        <v>384808.5761582889</v>
       </c>
       <c r="G6" t="n">
-        <v>384859.6068204734</v>
+        <v>384808.5761582892</v>
       </c>
       <c r="H6" t="n">
-        <v>384859.6068204734</v>
+        <v>384808.5761582889</v>
       </c>
       <c r="I6" t="n">
-        <v>384859.6068204731</v>
+        <v>384808.5761582888</v>
       </c>
       <c r="J6" t="n">
-        <v>258282.3382401842</v>
+        <v>258231.3075780002</v>
       </c>
       <c r="K6" t="n">
-        <v>366213.0064634533</v>
+        <v>366161.9758012689</v>
       </c>
       <c r="L6" t="n">
-        <v>384859.6068204732</v>
+        <v>384808.5761582889</v>
       </c>
       <c r="M6" t="n">
-        <v>204795.7353653055</v>
+        <v>204744.7047031211</v>
       </c>
       <c r="N6" t="n">
-        <v>384859.606820473</v>
+        <v>384808.5761582889</v>
       </c>
       <c r="O6" t="n">
-        <v>384859.6068204732</v>
+        <v>384808.5761582889</v>
       </c>
       <c r="P6" t="n">
-        <v>384859.6068204733</v>
+        <v>384808.5761582889</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>355.826447001754</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>231.6731933331303</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.284315397371259</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>42.84402626992144</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -27599,10 +27599,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.23069669041814</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>157.6836177392387</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>232.7324384170702</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>13.45497804879048</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>206.2762395340006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>59.29601254814088</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>230.0087579140022</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.304553167390384</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.304553167389465</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34777,31 +34777,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>368.1052675669848</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.81557123941343</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759611215</v>
+        <v>128.2935975567482</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>155.2981118204434</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>73.06155854104185</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
+        <v>440.0596680121639</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>163.8547131678031</v>
+        <v>332.04184444515</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>930.2279594557806</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>83.23994392538583</v>
       </c>
       <c r="L15" t="n">
         <v>845.2513212958648</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404445</v>
       </c>
       <c r="O16" t="n">
         <v>359.0183117977405</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>727.745735973212</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35971,10 +35971,10 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>430.0242783334557</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36141,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M21" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36369,7 +36369,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>699.4275107890124</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>185.2155418451189</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.2926905936983</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>267.0533324336329</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N35" t="n">
-        <v>595.2046518540836</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37326,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37469,13 +37469,13 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115391</v>
       </c>
       <c r="M37" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404432</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O37" t="n">
         <v>359.0183117977405</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,16 +37551,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
-        <v>821.7380070696748</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>205.0592278086265</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>839.8024120319977</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37861,7 +37861,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>269.8797922757842</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38022,19 +38022,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>459.6574502083416</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
